--- a/natmiOut/OldD4/LR-pairs_lrc2p/Penk-Ogfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Penk-Ogfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Ogfr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>39.158265624393</v>
+        <v>0.2684063333333334</v>
       </c>
       <c r="H2">
-        <v>39.158265624393</v>
+        <v>0.805219</v>
       </c>
       <c r="I2">
-        <v>0.9726741155720464</v>
+        <v>0.006023033753180069</v>
       </c>
       <c r="J2">
-        <v>0.9726741155720464</v>
+        <v>0.006073129829757112</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.68424163130922</v>
+        <v>8.019520333333334</v>
       </c>
       <c r="N2">
-        <v>6.68424163130922</v>
+        <v>24.058561</v>
       </c>
       <c r="O2">
-        <v>0.1328069758774698</v>
+        <v>0.1352105817207177</v>
       </c>
       <c r="P2">
-        <v>0.1328069758774698</v>
+        <v>0.1391454292795792</v>
       </c>
       <c r="Q2">
-        <v>261.7433092964325</v>
+        <v>2.152490047762111</v>
       </c>
       <c r="R2">
-        <v>261.7433092964325</v>
+        <v>19.372410429859</v>
       </c>
       <c r="S2">
-        <v>0.129177907803416</v>
+        <v>0.000814377897490995</v>
       </c>
       <c r="T2">
-        <v>0.129177907803416</v>
+        <v>0.0008450482572321713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>39.158265624393</v>
+        <v>0.2684063333333334</v>
       </c>
       <c r="H3">
-        <v>39.158265624393</v>
+        <v>0.805219</v>
       </c>
       <c r="I3">
-        <v>0.9726741155720464</v>
+        <v>0.006023033753180069</v>
       </c>
       <c r="J3">
-        <v>0.9726741155720464</v>
+        <v>0.006073129829757112</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.7144024425033</v>
+        <v>14.595151</v>
       </c>
       <c r="N3">
-        <v>12.7144024425033</v>
+        <v>43.785453</v>
       </c>
       <c r="O3">
-        <v>0.2526182372834487</v>
+        <v>0.2460769191904347</v>
       </c>
       <c r="P3">
-        <v>0.2526182372834487</v>
+        <v>0.253238157256614</v>
       </c>
       <c r="Q3">
-        <v>497.8739480989754</v>
+        <v>3.917430964356334</v>
       </c>
       <c r="R3">
-        <v>497.8739480989754</v>
+        <v>35.25687867920701</v>
       </c>
       <c r="S3">
-        <v>0.2457152205270478</v>
+        <v>0.001482129590162553</v>
       </c>
       <c r="T3">
-        <v>0.2457152205270478</v>
+        <v>0.001537948206867865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>39.158265624393</v>
+        <v>0.2684063333333334</v>
       </c>
       <c r="H4">
-        <v>39.158265624393</v>
+        <v>0.805219</v>
       </c>
       <c r="I4">
-        <v>0.9726741155720464</v>
+        <v>0.006023033753180069</v>
       </c>
       <c r="J4">
-        <v>0.9726741155720464</v>
+        <v>0.006073129829757112</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.7101073533694</v>
+        <v>16.00106533333333</v>
       </c>
       <c r="N4">
-        <v>10.7101073533694</v>
+        <v>48.003196</v>
       </c>
       <c r="O4">
-        <v>0.2127955641611725</v>
+        <v>0.2697808923656585</v>
       </c>
       <c r="P4">
-        <v>0.2127955641611725</v>
+        <v>0.2776319545550451</v>
       </c>
       <c r="Q4">
-        <v>419.3892286090037</v>
+        <v>4.294787275547112</v>
       </c>
       <c r="R4">
-        <v>419.3892286090037</v>
+        <v>38.653085479924</v>
       </c>
       <c r="S4">
-        <v>0.2069807371681232</v>
+        <v>0.0016248994206814</v>
       </c>
       <c r="T4">
-        <v>0.2069807371681232</v>
+        <v>0.001686094904902015</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>39.158265624393</v>
+        <v>0.2684063333333334</v>
       </c>
       <c r="H5">
-        <v>39.158265624393</v>
+        <v>0.805219</v>
       </c>
       <c r="I5">
-        <v>0.9726741155720464</v>
+        <v>0.006023033753180069</v>
       </c>
       <c r="J5">
-        <v>0.9726741155720464</v>
+        <v>0.006073129829757112</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.3281466652334</v>
+        <v>15.663863</v>
       </c>
       <c r="N5">
-        <v>15.3281466652334</v>
+        <v>46.991589</v>
       </c>
       <c r="O5">
-        <v>0.3045498527283563</v>
+        <v>0.2640955992617713</v>
       </c>
       <c r="P5">
-        <v>0.3045498527283563</v>
+        <v>0.2717812101868667</v>
       </c>
       <c r="Q5">
-        <v>600.2236386468633</v>
+        <v>4.204280033665666</v>
       </c>
       <c r="R5">
-        <v>600.2236386468633</v>
+        <v>37.838520302991</v>
       </c>
       <c r="S5">
-        <v>0.2962277586501509</v>
+        <v>0.001590656708419966</v>
       </c>
       <c r="T5">
-        <v>0.2962277586501509</v>
+        <v>0.001650562574753348</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>39.158265624393</v>
+        <v>0.2684063333333334</v>
       </c>
       <c r="H6">
-        <v>39.158265624393</v>
+        <v>0.805219</v>
       </c>
       <c r="I6">
-        <v>0.9726741155720464</v>
+        <v>0.006023033753180069</v>
       </c>
       <c r="J6">
-        <v>0.9726741155720464</v>
+        <v>0.006073129829757112</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.89360290081735</v>
+        <v>5.031737</v>
       </c>
       <c r="N6">
-        <v>4.89360290081735</v>
+        <v>10.063474</v>
       </c>
       <c r="O6">
-        <v>0.09722936994955272</v>
+        <v>0.08483600746141787</v>
       </c>
       <c r="P6">
-        <v>0.09722936994955272</v>
+        <v>0.05820324872189506</v>
       </c>
       <c r="Q6">
-        <v>191.6250022505059</v>
+        <v>1.350550078467667</v>
       </c>
       <c r="R6">
-        <v>191.6250022505059</v>
+        <v>8.103300470805999</v>
       </c>
       <c r="S6">
-        <v>0.09457249142330851</v>
+        <v>0.000510970136425156</v>
       </c>
       <c r="T6">
-        <v>0.09457249142330851</v>
+        <v>0.0003534758860017134</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.10009531838109</v>
+        <v>43.033198</v>
       </c>
       <c r="H7">
-        <v>1.10009531838109</v>
+        <v>129.099594</v>
       </c>
       <c r="I7">
-        <v>0.0273258844279537</v>
+        <v>0.9656642629940961</v>
       </c>
       <c r="J7">
-        <v>0.0273258844279537</v>
+        <v>0.9736960942686801</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.68424163130922</v>
+        <v>8.019520333333334</v>
       </c>
       <c r="N7">
-        <v>6.68424163130922</v>
+        <v>24.058561</v>
       </c>
       <c r="O7">
-        <v>0.1328069758774698</v>
+        <v>0.1352105817207177</v>
       </c>
       <c r="P7">
-        <v>0.1328069758774698</v>
+        <v>0.1391454292795792</v>
       </c>
       <c r="Q7">
-        <v>7.353302925531253</v>
+        <v>345.1056063693594</v>
       </c>
       <c r="R7">
-        <v>7.353302925531253</v>
+        <v>3105.950457324234</v>
       </c>
       <c r="S7">
-        <v>0.003629068074053774</v>
+        <v>0.1305680267463399</v>
       </c>
       <c r="T7">
-        <v>0.003629068074053774</v>
+        <v>0.1354853610248651</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.10009531838109</v>
+        <v>43.033198</v>
       </c>
       <c r="H8">
-        <v>1.10009531838109</v>
+        <v>129.099594</v>
       </c>
       <c r="I8">
-        <v>0.0273258844279537</v>
+        <v>0.9656642629940961</v>
       </c>
       <c r="J8">
-        <v>0.0273258844279537</v>
+        <v>0.9736960942686801</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.7144024425033</v>
+        <v>14.595151</v>
       </c>
       <c r="N8">
-        <v>12.7144024425033</v>
+        <v>43.785453</v>
       </c>
       <c r="O8">
-        <v>0.2526182372834487</v>
+        <v>0.2460769191904347</v>
       </c>
       <c r="P8">
-        <v>0.2526182372834487</v>
+        <v>0.253238157256614</v>
       </c>
       <c r="Q8">
-        <v>13.98705460301098</v>
+        <v>628.076022822898</v>
       </c>
       <c r="R8">
-        <v>13.98705460301098</v>
+        <v>5652.684205406083</v>
       </c>
       <c r="S8">
-        <v>0.006903016756400903</v>
+        <v>0.2376276868098889</v>
       </c>
       <c r="T8">
-        <v>0.006903016756400903</v>
+        <v>0.2465770046405629</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.10009531838109</v>
+        <v>43.033198</v>
       </c>
       <c r="H9">
-        <v>1.10009531838109</v>
+        <v>129.099594</v>
       </c>
       <c r="I9">
-        <v>0.0273258844279537</v>
+        <v>0.9656642629940961</v>
       </c>
       <c r="J9">
-        <v>0.0273258844279537</v>
+        <v>0.9736960942686801</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.7101073533694</v>
+        <v>16.00106533333333</v>
       </c>
       <c r="N9">
-        <v>10.7101073533694</v>
+        <v>48.003196</v>
       </c>
       <c r="O9">
-        <v>0.2127955641611725</v>
+        <v>0.2697808923656585</v>
       </c>
       <c r="P9">
-        <v>0.2127955641611725</v>
+        <v>0.2776319545550451</v>
       </c>
       <c r="Q9">
-        <v>11.78213895880056</v>
+        <v>688.5770127002693</v>
       </c>
       <c r="R9">
-        <v>11.78213895880056</v>
+        <v>6197.193114302424</v>
       </c>
       <c r="S9">
-        <v>0.005814826993049408</v>
+        <v>0.2605177665961732</v>
       </c>
       <c r="T9">
-        <v>0.005814826993049408</v>
+        <v>0.2703291497944271</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.10009531838109</v>
+        <v>43.033198</v>
       </c>
       <c r="H10">
-        <v>1.10009531838109</v>
+        <v>129.099594</v>
       </c>
       <c r="I10">
-        <v>0.0273258844279537</v>
+        <v>0.9656642629940961</v>
       </c>
       <c r="J10">
-        <v>0.0273258844279537</v>
+        <v>0.9736960942686801</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.3281466652334</v>
+        <v>15.663863</v>
       </c>
       <c r="N10">
-        <v>15.3281466652334</v>
+        <v>46.991589</v>
       </c>
       <c r="O10">
-        <v>0.3045498527283563</v>
+        <v>0.2640955992617713</v>
       </c>
       <c r="P10">
-        <v>0.3045498527283563</v>
+        <v>0.2717812101868667</v>
       </c>
       <c r="Q10">
-        <v>16.86242238588198</v>
+        <v>674.0661179238739</v>
       </c>
       <c r="R10">
-        <v>16.86242238588198</v>
+        <v>6066.595061314865</v>
       </c>
       <c r="S10">
-        <v>0.008322094078205384</v>
+        <v>0.2550276822211025</v>
       </c>
       <c r="T10">
-        <v>0.008322094078205384</v>
+        <v>0.2646323028545673</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>43.033198</v>
+      </c>
+      <c r="H11">
+        <v>129.099594</v>
+      </c>
+      <c r="I11">
+        <v>0.9656642629940961</v>
+      </c>
+      <c r="J11">
+        <v>0.9736960942686801</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.031737</v>
+      </c>
+      <c r="N11">
+        <v>10.063474</v>
+      </c>
+      <c r="O11">
+        <v>0.08483600746141787</v>
+      </c>
+      <c r="P11">
+        <v>0.05820324872189506</v>
+      </c>
+      <c r="Q11">
+        <v>216.531734604926</v>
+      </c>
+      <c r="R11">
+        <v>1299.190407629556</v>
+      </c>
+      <c r="S11">
+        <v>0.08192310062059173</v>
+      </c>
+      <c r="T11">
+        <v>0.05667227595425776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.07400866666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.222026</v>
+      </c>
+      <c r="I12">
+        <v>0.00166075327592066</v>
+      </c>
+      <c r="J12">
+        <v>0.001674566451588515</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.019520333333334</v>
+      </c>
+      <c r="N12">
+        <v>24.058561</v>
+      </c>
+      <c r="O12">
+        <v>0.1352105817207177</v>
+      </c>
+      <c r="P12">
+        <v>0.1391454292795792</v>
+      </c>
+      <c r="Q12">
+        <v>0.5935140071762223</v>
+      </c>
+      <c r="R12">
+        <v>5.341626064586</v>
+      </c>
+      <c r="S12">
+        <v>0.0002245514165318201</v>
+      </c>
+      <c r="T12">
+        <v>0.0002330082677634657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07400866666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.222026</v>
+      </c>
+      <c r="I13">
+        <v>0.00166075327592066</v>
+      </c>
+      <c r="J13">
+        <v>0.001674566451588515</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.595151</v>
+      </c>
+      <c r="N13">
+        <v>43.785453</v>
+      </c>
+      <c r="O13">
+        <v>0.2460769191904347</v>
+      </c>
+      <c r="P13">
+        <v>0.253238157256614</v>
+      </c>
+      <c r="Q13">
+        <v>1.080167665308667</v>
+      </c>
+      <c r="R13">
+        <v>9.721508987778002</v>
+      </c>
+      <c r="S13">
+        <v>0.000408673049673978</v>
+      </c>
+      <c r="T13">
+        <v>0.0004240641224040226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.07400866666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.222026</v>
+      </c>
+      <c r="I14">
+        <v>0.00166075327592066</v>
+      </c>
+      <c r="J14">
+        <v>0.001674566451588515</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>16.00106533333333</v>
+      </c>
+      <c r="N14">
+        <v>48.003196</v>
+      </c>
+      <c r="O14">
+        <v>0.2697808923656585</v>
+      </c>
+      <c r="P14">
+        <v>0.2776319545550451</v>
+      </c>
+      <c r="Q14">
+        <v>1.184217510566222</v>
+      </c>
+      <c r="R14">
+        <v>10.657957595096</v>
+      </c>
+      <c r="S14">
+        <v>0.0004480395007770664</v>
+      </c>
+      <c r="T14">
+        <v>0.0004649131569868258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.07400866666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.222026</v>
+      </c>
+      <c r="I15">
+        <v>0.00166075327592066</v>
+      </c>
+      <c r="J15">
+        <v>0.001674566451588515</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>15.663863</v>
+      </c>
+      <c r="N15">
+        <v>46.991589</v>
+      </c>
+      <c r="O15">
+        <v>0.2640955992617713</v>
+      </c>
+      <c r="P15">
+        <v>0.2717812101868667</v>
+      </c>
+      <c r="Q15">
+        <v>1.159261615479333</v>
+      </c>
+      <c r="R15">
+        <v>10.433354539314</v>
+      </c>
+      <c r="S15">
+        <v>0.0004385976316302165</v>
+      </c>
+      <c r="T15">
+        <v>0.0004551156967510538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07400866666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.222026</v>
+      </c>
+      <c r="I16">
+        <v>0.00166075327592066</v>
+      </c>
+      <c r="J16">
+        <v>0.001674566451588515</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.031737</v>
+      </c>
+      <c r="N16">
+        <v>10.063474</v>
+      </c>
+      <c r="O16">
+        <v>0.08483600746141787</v>
+      </c>
+      <c r="P16">
+        <v>0.05820324872189506</v>
+      </c>
+      <c r="Q16">
+        <v>0.3723921463873333</v>
+      </c>
+      <c r="R16">
+        <v>2.234352878324</v>
+      </c>
+      <c r="S16">
+        <v>0.0001408916773075793</v>
+      </c>
+      <c r="T16">
+        <v>9.746520768314759E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.08491666666666665</v>
+      </c>
+      <c r="H17">
+        <v>0.25475</v>
+      </c>
+      <c r="I17">
+        <v>0.001905528618453641</v>
+      </c>
+      <c r="J17">
+        <v>0.00192137769244221</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.019520333333334</v>
+      </c>
+      <c r="N17">
+        <v>24.058561</v>
+      </c>
+      <c r="O17">
+        <v>0.1352105817207177</v>
+      </c>
+      <c r="P17">
+        <v>0.1391454292795792</v>
+      </c>
+      <c r="Q17">
+        <v>0.6809909349722222</v>
+      </c>
+      <c r="R17">
+        <v>6.128918414749999</v>
+      </c>
+      <c r="S17">
+        <v>0.0002576476329865924</v>
+      </c>
+      <c r="T17">
+        <v>0.0002673509238230787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.10009531838109</v>
-      </c>
-      <c r="H11">
-        <v>1.10009531838109</v>
-      </c>
-      <c r="I11">
-        <v>0.0273258844279537</v>
-      </c>
-      <c r="J11">
-        <v>0.0273258844279537</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>4.89360290081735</v>
-      </c>
-      <c r="N11">
-        <v>4.89360290081735</v>
-      </c>
-      <c r="O11">
-        <v>0.09722936994955272</v>
-      </c>
-      <c r="P11">
-        <v>0.09722936994955272</v>
-      </c>
-      <c r="Q11">
-        <v>5.383429641205288</v>
-      </c>
-      <c r="R11">
-        <v>5.383429641205288</v>
-      </c>
-      <c r="S11">
-        <v>0.002656878526244232</v>
-      </c>
-      <c r="T11">
-        <v>0.002656878526244232</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.08491666666666665</v>
+      </c>
+      <c r="H18">
+        <v>0.25475</v>
+      </c>
+      <c r="I18">
+        <v>0.001905528618453641</v>
+      </c>
+      <c r="J18">
+        <v>0.00192137769244221</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>14.595151</v>
+      </c>
+      <c r="N18">
+        <v>43.785453</v>
+      </c>
+      <c r="O18">
+        <v>0.2460769191904347</v>
+      </c>
+      <c r="P18">
+        <v>0.253238157256614</v>
+      </c>
+      <c r="Q18">
+        <v>1.239371572416667</v>
+      </c>
+      <c r="R18">
+        <v>11.15434415175</v>
+      </c>
+      <c r="S18">
+        <v>0.0004689066118582774</v>
+      </c>
+      <c r="T18">
+        <v>0.0004865661462280306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.08491666666666665</v>
+      </c>
+      <c r="H19">
+        <v>0.25475</v>
+      </c>
+      <c r="I19">
+        <v>0.001905528618453641</v>
+      </c>
+      <c r="J19">
+        <v>0.00192137769244221</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.00106533333333</v>
+      </c>
+      <c r="N19">
+        <v>48.003196</v>
+      </c>
+      <c r="O19">
+        <v>0.2697808923656585</v>
+      </c>
+      <c r="P19">
+        <v>0.2776319545550451</v>
+      </c>
+      <c r="Q19">
+        <v>1.358757131222222</v>
+      </c>
+      <c r="R19">
+        <v>12.228814181</v>
+      </c>
+      <c r="S19">
+        <v>0.0005140752111147237</v>
+      </c>
+      <c r="T19">
+        <v>0.0005334358441911933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.08491666666666665</v>
+      </c>
+      <c r="H20">
+        <v>0.25475</v>
+      </c>
+      <c r="I20">
+        <v>0.001905528618453641</v>
+      </c>
+      <c r="J20">
+        <v>0.00192137769244221</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>15.663863</v>
+      </c>
+      <c r="N20">
+        <v>46.991589</v>
+      </c>
+      <c r="O20">
+        <v>0.2640955992617713</v>
+      </c>
+      <c r="P20">
+        <v>0.2717812101868667</v>
+      </c>
+      <c r="Q20">
+        <v>1.330123033083333</v>
+      </c>
+      <c r="R20">
+        <v>11.97110729775</v>
+      </c>
+      <c r="S20">
+        <v>0.0005032417224009694</v>
+      </c>
+      <c r="T20">
+        <v>0.0005221943544779932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.08491666666666665</v>
+      </c>
+      <c r="H21">
+        <v>0.25475</v>
+      </c>
+      <c r="I21">
+        <v>0.001905528618453641</v>
+      </c>
+      <c r="J21">
+        <v>0.00192137769244221</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.031737</v>
+      </c>
+      <c r="N21">
+        <v>10.063474</v>
+      </c>
+      <c r="O21">
+        <v>0.08483600746141787</v>
+      </c>
+      <c r="P21">
+        <v>0.05820324872189506</v>
+      </c>
+      <c r="Q21">
+        <v>0.4272783335833332</v>
+      </c>
+      <c r="R21">
+        <v>2.5636700015</v>
+      </c>
+      <c r="S21">
+        <v>0.0001616574400930784</v>
+      </c>
+      <c r="T21">
+        <v>0.0001118304237219148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.1027825</v>
+      </c>
+      <c r="H22">
+        <v>2.205565</v>
+      </c>
+      <c r="I22">
+        <v>0.02474642135834959</v>
+      </c>
+      <c r="J22">
+        <v>0.01663483175753211</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.019520333333334</v>
+      </c>
+      <c r="N22">
+        <v>24.058561</v>
+      </c>
+      <c r="O22">
+        <v>0.1352105817207177</v>
+      </c>
+      <c r="P22">
+        <v>0.1391454292795792</v>
+      </c>
+      <c r="Q22">
+        <v>8.843786681994168</v>
+      </c>
+      <c r="R22">
+        <v>53.06272009196501</v>
+      </c>
+      <c r="S22">
+        <v>0.003345978027368442</v>
+      </c>
+      <c r="T22">
+        <v>0.002314660805895382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.1027825</v>
+      </c>
+      <c r="H23">
+        <v>2.205565</v>
+      </c>
+      <c r="I23">
+        <v>0.02474642135834959</v>
+      </c>
+      <c r="J23">
+        <v>0.01663483175753211</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>14.595151</v>
+      </c>
+      <c r="N23">
+        <v>43.785453</v>
+      </c>
+      <c r="O23">
+        <v>0.2460769191904347</v>
+      </c>
+      <c r="P23">
+        <v>0.253238157256614</v>
+      </c>
+      <c r="Q23">
+        <v>16.0952771076575</v>
+      </c>
+      <c r="R23">
+        <v>96.57166264594501</v>
+      </c>
+      <c r="S23">
+        <v>0.00608952312885104</v>
+      </c>
+      <c r="T23">
+        <v>0.004212574140551232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.1027825</v>
+      </c>
+      <c r="H24">
+        <v>2.205565</v>
+      </c>
+      <c r="I24">
+        <v>0.02474642135834959</v>
+      </c>
+      <c r="J24">
+        <v>0.01663483175753211</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>16.00106533333333</v>
+      </c>
+      <c r="N24">
+        <v>48.003196</v>
+      </c>
+      <c r="O24">
+        <v>0.2697808923656585</v>
+      </c>
+      <c r="P24">
+        <v>0.2776319545550451</v>
+      </c>
+      <c r="Q24">
+        <v>17.64569483095667</v>
+      </c>
+      <c r="R24">
+        <v>105.87416898574</v>
+      </c>
+      <c r="S24">
+        <v>0.006676111636912144</v>
+      </c>
+      <c r="T24">
+        <v>0.004618360854537975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.1027825</v>
+      </c>
+      <c r="H25">
+        <v>2.205565</v>
+      </c>
+      <c r="I25">
+        <v>0.02474642135834959</v>
+      </c>
+      <c r="J25">
+        <v>0.01663483175753211</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15.663863</v>
+      </c>
+      <c r="N25">
+        <v>46.991589</v>
+      </c>
+      <c r="O25">
+        <v>0.2640955992617713</v>
+      </c>
+      <c r="P25">
+        <v>0.2717812101868667</v>
+      </c>
+      <c r="Q25">
+        <v>17.2738339987975</v>
+      </c>
+      <c r="R25">
+        <v>103.643003992785</v>
+      </c>
+      <c r="S25">
+        <v>0.006535420978217631</v>
+      </c>
+      <c r="T25">
+        <v>0.004521034706316998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.1027825</v>
+      </c>
+      <c r="H26">
+        <v>2.205565</v>
+      </c>
+      <c r="I26">
+        <v>0.02474642135834959</v>
+      </c>
+      <c r="J26">
+        <v>0.01663483175753211</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.031737</v>
+      </c>
+      <c r="N26">
+        <v>10.063474</v>
+      </c>
+      <c r="O26">
+        <v>0.08483600746141787</v>
+      </c>
+      <c r="P26">
+        <v>0.05820324872189506</v>
+      </c>
+      <c r="Q26">
+        <v>5.5489115082025</v>
+      </c>
+      <c r="R26">
+        <v>22.19564603281</v>
+      </c>
+      <c r="S26">
+        <v>0.002099387587000336</v>
+      </c>
+      <c r="T26">
+        <v>0.0009682012502305198</v>
       </c>
     </row>
   </sheetData>
